--- a/CSR Calculation.xlsx
+++ b/CSR Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pari1218\PycharmProjects\liquefactionModule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513EC12-EF87-4B6F-9C99-2DBF8268C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7461001-82CD-498E-BA84-774060D13D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67B82A6F-B40E-4734-84D5-D63671772729}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67B82A6F-B40E-4734-84D5-D63671772729}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,11 +296,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,6 +756,8 @@
         <c:axId val="1112527960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -822,6 +821,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1846,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35646A4-E4AA-432C-8B96-14B6DF10184A}">
-  <dimension ref="A3:I75"/>
+  <dimension ref="A3:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1860,7 +1860,7 @@
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1960,31 +1960,61 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Z10">
+        <v>0.6</v>
+      </c>
+      <c r="AA10">
+        <v>1.17</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>AVERAGE(Z10:AA10)</f>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="Z11">
+        <v>0.45</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" ref="AB11:AB12" si="2">AVERAGE(Z11:AA11)</f>
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z12">
+        <v>0.9</v>
+      </c>
+      <c r="AA12">
+        <v>1.6</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2009,11 +2039,11 @@
       <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>IF(B15&gt;$D$4,$B$4,IF(B15&gt;$D$5,$B$5,IF(B15&gt;$D$6,$B$6,$B$7)))</f>
         <v>Soil 1</v>
@@ -2034,7 +2064,7 @@
         <v>1.8</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="2">+IF(B15&gt;($B$12-$B$9),0,(($B$12-B15)-$B$9)*$B$10)</f>
+        <f t="shared" ref="F15:F19" si="3">+IF(B15&gt;($B$12-$B$9),0,(($B$12-B15)-$B$9)*$B$10)</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
@@ -2050,9 +2080,9 @@
         <v>0.97574587499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f t="shared" ref="A16:A75" si="3">IF(B16&gt;$D$4,$B$4,IF(B16&gt;$D$5,$B$5,IF(B16&gt;$D$6,$B$6,$B$7)))</f>
+        <f t="shared" ref="A16:A75" si="4">IF(B16&gt;$D$4,$B$4,IF(B16&gt;$D$5,$B$5,IF(B16&gt;$D$6,$B$6,$B$7)))</f>
         <v>Soil 1</v>
       </c>
       <c r="B16">
@@ -2060,7 +2090,7 @@
         <v>-0.4</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C75" si="4">VLOOKUP(A16,$B$4:$F$7,5,FALSE)</f>
+        <f t="shared" ref="C16:C75" si="5">VLOOKUP(A16,$B$4:$F$7,5,FALSE)</f>
         <v>18</v>
       </c>
       <c r="D16">
@@ -2072,155 +2102,155 @@
         <v>10.8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G75" si="5">+E16-F16</f>
+        <f t="shared" ref="G16:G75" si="6">+E16-F16</f>
         <v>10.8</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H75" si="6">IF(($B$12-B16)&lt;9.15,1-0.00765*($B$12-B16),IF(($B$12-B16)&lt;23,1.174-0.0267*($B$12-B16),IF(($B$12-B16)&lt;30,0.744-0.008*($B$12-B16),0.5)))</f>
+        <f t="shared" ref="H16:H75" si="7">IF(($B$12-B16)&lt;9.15,1-0.00765*($B$12-B16),IF(($B$12-B16)&lt;23,1.174-0.0267*($B$12-B16),IF(($B$12-B16)&lt;30,0.744-0.008*($B$12-B16),0.5)))</f>
         <v>0.99694000000000005</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I75" si="7">0.65*(E16/G16)*$B$11*H16</f>
+        <f t="shared" ref="I16:I75" si="8">0.65*(E16/G16)*$B$11*H16</f>
         <v>0.97201650000000017</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
+        <f t="shared" si="4"/>
+        <v>Soil 1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B75" si="9">+B16-0.5</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D75" si="10">+C17*(B16-B17)</f>
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:E75" si="11">+E16+D17</f>
+        <v>19.8</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0.99311499999999997</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0.96828712500000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="4"/>
         <v>Soil 1</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:B75" si="8">+B16-0.5</f>
-        <v>-0.9</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
+      <c r="B18">
+        <f t="shared" si="9"/>
+        <v>-1.4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D75" si="9">+C17*(B16-B17)</f>
+      <c r="D18">
+        <f t="shared" si="10"/>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="11"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="6"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>0.98929</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0.9645577500000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="4"/>
+        <v>Soil 1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="9"/>
+        <v>-1.9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:E75" si="10">+E16+D17</f>
-        <v>19.8</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
+      <c r="E19" s="3">
+        <f t="shared" si="11"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="5"/>
-        <v>19.8</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>0.99311499999999997</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="7"/>
-        <v>0.96828712500000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f t="shared" si="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="6"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>0.98546500000000004</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0.96082837500000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="4"/>
         <v>Soil 1</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="8"/>
-        <v>-1.4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
+      <c r="B20">
+        <f t="shared" si="9"/>
+        <v>-2.4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="9"/>
-        <v>8.9999999999999982</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="10"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="5"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>0.98929</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>0.9645577500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f t="shared" si="3"/>
-        <v>Soil 1</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="8"/>
-        <v>-1.9</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="9"/>
+      <c r="D20">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="10"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="5"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
-        <v>0.98546500000000004</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>0.96082837500000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f t="shared" si="3"/>
-        <v>Soil 1</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="8"/>
-        <v>-2.4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
       <c r="E20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46.8</v>
       </c>
       <c r="F20">
@@ -2228,2105 +2258,2135 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46.8</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98163999999999996</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.95709900000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.9</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55.3</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F75" si="11">+IF(B21&gt;($B$12-$B$9),0,(($B$12-B21)-$B$9)*$B$10)</f>
+        <f t="shared" ref="F21:F75" si="12">+IF(B21&gt;($B$12-$B$9),0,(($B$12-B21)-$B$9)*$B$10)</f>
         <v>3.9999999999999991</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97781499999999999</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0277064378654972</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.4</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>63.8</v>
       </c>
       <c r="F22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.8</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97399000000000002</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.105603064781022</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.9</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>72.3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97016500000000006</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1730592840909091</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.4000000000000004</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5000000000000071</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80.800000000000011</v>
       </c>
       <c r="F24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.000000000000004</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.800000000000011</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96633999999999998</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2318489514563107</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.9000000000000004</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89.300000000000011</v>
       </c>
       <c r="F25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24.000000000000004</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.300000000000011</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96251500000000001</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2833656165773353</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5.4</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97.800000000000011</v>
       </c>
       <c r="F26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.000000000000004</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.800000000000011</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95869000000000004</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.328719257994186</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5.9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106.30000000000001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.300000000000011</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95486499999999996</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3688049206431532</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.4</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114.80000000000001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75.800000000000011</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95104</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4043523377308706</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123.30000000000001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79.300000000000011</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94721500000000003</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4359624118852456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.4</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>131.80000000000001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82.800000000000011</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94338999999999995</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4641344438405797</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.9</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.30000000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86.300000000000011</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93956499999999998</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4892867353707993</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.4</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>148.80000000000001</v>
       </c>
       <c r="F32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89.800000000000011</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93574000000000002</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5117723741648106</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>0.6</v>
+      </c>
+      <c r="O32">
+        <v>1.17</v>
+      </c>
+      <c r="P32">
+        <f>AVERAGE(N32:O32)</f>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.9</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>157.30000000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93.300000000000011</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93191500000000005</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.531891465836013</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>0.45</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P34" si="13">AVERAGE(N33:O33)</f>
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.4</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>165.8</v>
       </c>
       <c r="F34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92301999999999995</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5414338646694214</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N34">
+        <v>0.9</v>
+      </c>
+      <c r="O34">
+        <v>1.6</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.9</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>174.3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.30000000000001</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90966999999999998</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5412920635593221</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10.4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>182.8</v>
       </c>
       <c r="F36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.80000000000001</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89631999999999989</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5390280693641616</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 2</v>
       </c>
       <c r="B37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10.9</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>191.3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107.30000000000001</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88296999999999992</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5348495524231127</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-11.4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>199.3</v>
       </c>
       <c r="F38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110.30000000000001</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86961999999999984</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5320252434270167</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-11.9</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>207.3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113.30000000000001</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85626999999999986</v>
       </c>
       <c r="I39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5275123718005295</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-12.4</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>215.3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>116.30000000000001</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84291999999999989</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5214416087704212</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-12.9</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>223.3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.30000000000001</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82956999999999992</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5139304817686503</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-13.4</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>231.3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122.30000000000001</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81621999999999995</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5050849865085854</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-13.9</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>239.3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125.30000000000001</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80286999999999997</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4950009674780527</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-14.4</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>247.3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.30000000000001</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.78951999999999989</v>
       </c>
       <c r="I44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4837653047544814</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-14.9</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>255.3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.30000000000001</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77616999999999992</v>
       </c>
       <c r="I45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4714569381188118</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-15.4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>263.3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>134.30000000000001</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76281999999999983</v>
       </c>
       <c r="I46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4581477539091585</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-15.9</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>271.3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>137.30000000000001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.74946999999999986</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4439033556081571</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-16.399999999999999</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9999999999999716</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>279.29999999999995</v>
       </c>
       <c r="F48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140.29999999999995</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73611999999999989</v>
       </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4287837355666431</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-16.899999999999999</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>287.29999999999995</v>
       </c>
       <c r="F49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.29999999999995</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72276999999999991</v>
       </c>
       <c r="I49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4128438623517097</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-17.399999999999999</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>295.29999999999995</v>
       </c>
       <c r="F50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146.29999999999995</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.70941999999999994</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3961341958304856</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-17.899999999999999</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>303.29999999999995</v>
       </c>
       <c r="F51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149.29999999999995</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.69606999999999997</v>
       </c>
       <c r="I51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3787011401540523</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-18.399999999999999</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>311.29999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152.29999999999995</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.68271999999999999</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3605874432042027</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 3</v>
       </c>
       <c r="B53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-18.899999999999999</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>319.29999999999995</v>
       </c>
       <c r="F53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>164</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155.29999999999995</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66936999999999991</v>
       </c>
       <c r="I53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3418325497424342</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-19.399999999999999</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>327.79999999999995</v>
       </c>
       <c r="F54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158.79999999999995</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65601999999999994</v>
       </c>
       <c r="I54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3203228721662472</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-19.899999999999999</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>336.29999999999995</v>
       </c>
       <c r="F55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>174</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162.29999999999995</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.64266999999999996</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2983775291127544</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-20.399999999999999</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>344.79999999999995</v>
       </c>
       <c r="F56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>179</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.79999999999995</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62931999999999999</v>
       </c>
       <c r="I56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2760241109770809</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-20.9</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>353.29999999999995</v>
       </c>
       <c r="F57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169.29999999999995</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.61596999999999991</v>
       </c>
       <c r="I57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2532879266095689</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-21.4</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>361.79999999999995</v>
       </c>
       <c r="F58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>172.79999999999995</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.60261999999999993</v>
       </c>
       <c r="I58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2301922343750002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-21.9</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>370.29999999999995</v>
       </c>
       <c r="F59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>176.29999999999995</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58926999999999996</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2067584456891662</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-22.4</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>378.79999999999995</v>
       </c>
       <c r="F60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179.79999999999995</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.57591999999999999</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1830063047830923</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-22.9</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>387.29999999999995</v>
       </c>
       <c r="F61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>204</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183.29999999999995</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625699999999999</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1589540478723404</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-23.4</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>395.79999999999995</v>
       </c>
       <c r="F62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>186.79999999999995</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55679999999999996</v>
       </c>
       <c r="I62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1502778586723768</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-23.9</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>404.29999999999995</v>
       </c>
       <c r="F63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>214</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190.29999999999995</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55279999999999996</v>
       </c>
       <c r="I63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1450846768260641</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24.4</v>
       </c>
       <c r="C64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>412.79999999999995</v>
       </c>
       <c r="F64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>219</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>193.79999999999995</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54879999999999995</v>
       </c>
       <c r="I64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1397369659442724</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24.9</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>421.29999999999995</v>
       </c>
       <c r="F65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>197.29999999999995</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54479999999999995</v>
       </c>
       <c r="I65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1342429498226054</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-25.4</v>
       </c>
       <c r="C66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>429.79999999999995</v>
       </c>
       <c r="F66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200.79999999999995</v>
       </c>
       <c r="H66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54079999999999995</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1286102788844621</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-25.9</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>438.29999999999995</v>
       </c>
       <c r="F67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>234</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>204.29999999999995</v>
       </c>
       <c r="H67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53679999999999994</v>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1228460792951542</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-26.4</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>446.79999999999995</v>
       </c>
       <c r="F68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>239</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>207.79999999999995</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53279999999999994</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1169569971126083</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-26.9</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>455.29999999999995</v>
       </c>
       <c r="F69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>211.29999999999995</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52879999999999994</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1109492380501655</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-27.4</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>463.79999999999995</v>
       </c>
       <c r="F70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>249</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214.79999999999995</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52479999999999993</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1048286033519554</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-27.9</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>472.29999999999995</v>
       </c>
       <c r="F71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>254</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>218.29999999999995</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52080000000000004</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0986005222171324</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-28.4</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>480.79999999999995</v>
       </c>
       <c r="F72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>259</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>221.79999999999995</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51680000000000004</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0922700811541932</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-28.9</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>489.29999999999995</v>
       </c>
       <c r="F73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>225.29999999999995</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51280000000000003</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0858420505992015</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-29.4</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>497.79999999999995</v>
       </c>
       <c r="F74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>269</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>228.79999999999995</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50880000000000003</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0793209090909093</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Soil 4</v>
       </c>
       <c r="B75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-29.9</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>506.29999999999995</v>
       </c>
       <c r="F75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>274</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>232.29999999999995</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50480000000000003</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0727108652604391</v>
       </c>
     </row>
@@ -4395,7 +4455,7 @@
         <f t="shared" ref="E3:E11" si="2">+C3/D3</f>
         <v>0.12991632805921943</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>0.048+-0.004721*21+C20*21^2+C22*21^3</f>
         <v>6.4520069999999985E-2</v>
       </c>
@@ -4588,7 +4648,7 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>-1.6730000000000001E-5</v>
       </c>
     </row>
@@ -4596,7 +4656,7 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>3.7139999999999999E-6</v>
       </c>
     </row>
